--- a/results/mp/logistic/corona/confidence/210/desired-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
@@ -64,39 +64,39 @@
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>special</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -106,39 +106,39 @@
     <t>support</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>join</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>hope</t>
@@ -524,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +532,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8424657534246576</v>
+        <v>0.8321917808219178</v>
       </c>
       <c r="C3">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D3">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
@@ -643,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8378378378378378</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,13 +664,13 @@
         <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8157894736842105</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9242819843342036</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L7">
-        <v>354</v>
+        <v>54</v>
       </c>
       <c r="M7">
-        <v>354</v>
+        <v>54</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5608465608465608</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D8">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4576271186440678</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K9">
-        <v>0.9014084507042254</v>
+        <v>0.8903394255874674</v>
       </c>
       <c r="L9">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="M9">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4341085271317829</v>
+        <v>0.4961240310077519</v>
       </c>
       <c r="C10">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="D10">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8928571428571429</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,13 +990,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2027777777777778</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C11">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>287</v>
+        <v>115</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K11">
-        <v>0.890625</v>
+        <v>0.8828125</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1040,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1812080536912752</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>122</v>
+        <v>304</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K12">
-        <v>0.8875</v>
+        <v>0.88125</v>
       </c>
       <c r="L12">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M12">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1090,13 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>0.8867924528301887</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1119,13 +1116,13 @@
         <v>30</v>
       </c>
       <c r="K14">
-        <v>0.8658536585365854</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L14">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="M14">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1137,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1145,13 +1142,13 @@
         <v>31</v>
       </c>
       <c r="K15">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1163,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1171,13 +1168,13 @@
         <v>32</v>
       </c>
       <c r="K16">
-        <v>0.8611111111111112</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1189,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1197,13 +1194,13 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.851063829787234</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1215,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1223,13 +1220,13 @@
         <v>34</v>
       </c>
       <c r="K18">
-        <v>0.8372093023255814</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1249,13 +1246,13 @@
         <v>35</v>
       </c>
       <c r="K19">
-        <v>0.8253968253968254</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1267,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1275,13 +1272,13 @@
         <v>36</v>
       </c>
       <c r="K20">
-        <v>0.8205128205128205</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1293,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1301,13 +1298,13 @@
         <v>37</v>
       </c>
       <c r="K21">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1319,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1327,13 +1324,13 @@
         <v>38</v>
       </c>
       <c r="K22">
-        <v>0.78</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1345,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1353,13 +1350,13 @@
         <v>39</v>
       </c>
       <c r="K23">
-        <v>0.7714285714285715</v>
+        <v>0.7235294117647059</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1371,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1379,13 +1376,13 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>0.7470588235294118</v>
+        <v>0.717687074829932</v>
       </c>
       <c r="L24">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="M24">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1394,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1405,13 +1402,13 @@
         <v>41</v>
       </c>
       <c r="K25">
-        <v>0.7154811715481172</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L25">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M25">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1423,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1431,13 +1428,13 @@
         <v>42</v>
       </c>
       <c r="K26">
-        <v>0.7021276595744681</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L26">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M26">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1449,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1457,13 +1454,13 @@
         <v>43</v>
       </c>
       <c r="K27">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1475,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1483,13 +1480,13 @@
         <v>44</v>
       </c>
       <c r="K28">
-        <v>0.6983050847457627</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L28">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1501,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1509,13 +1506,13 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>0.6615384615384615</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1527,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1535,13 +1532,13 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>0.6142857142857143</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1553,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1561,13 +1558,13 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>0.5617977528089888</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L31">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1579,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1587,13 +1584,13 @@
         <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5294117647058824</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1605,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1613,13 +1610,13 @@
         <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4358974358974359</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1632,32 +1629,6 @@
       </c>
       <c r="Q33">
         <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K34">
-        <v>0.3835616438356164</v>
-      </c>
-      <c r="L34">
-        <v>28</v>
-      </c>
-      <c r="M34">
-        <v>28</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
